--- a/output/excel_output.xlsx
+++ b/output/excel_output.xlsx
@@ -122,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>9175600.0</v>
+        <v>6998900.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -139,13 +139,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>51100.0</v>
+        <v>30700.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>96008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>999.0</v>
@@ -156,7 +156,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1195600.0</v>
+        <v>863500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1338720.0</v>
@@ -173,7 +173,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>78300.0</v>
+        <v>72300.0</v>
       </c>
       <c r="C5" t="n">
         <v>64064.0</v>
@@ -190,10 +190,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>6639700.0</v>
+        <v>4085000.0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1028096.0</v>
       </c>
       <c r="D6" t="n">
         <v>2997.0</v>
@@ -207,16 +207,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2292900.0</v>
+        <v>1705600.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>22194.0</v>
+        <v>21324.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5398.0</v>
+        <v>5108.0</v>
       </c>
     </row>
     <row r="8">
@@ -224,7 +224,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4662700.0</v>
+        <v>4122400.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -268,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.377172E8</v>
+        <v>1.977813E8</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -285,13 +285,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>256600.0</v>
+        <v>305100.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>960008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>10998.0</v>
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1368700.0</v>
+        <v>2277900.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.7850464E7</v>
@@ -319,7 +319,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>535800.0</v>
+        <v>619000.0</v>
       </c>
       <c r="C5" t="n">
         <v>640064.0</v>
@@ -336,10 +336,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>6.55083E7</v>
+        <v>4.77963E7</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1.0244096E7</v>
       </c>
       <c r="D6" t="n">
         <v>32994.0</v>
@@ -353,16 +353,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2948800.0</v>
+        <v>2354200.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>309450.0</v>
+        <v>290553.0</v>
       </c>
       <c r="E7" t="n">
-        <v>81150.0</v>
+        <v>74851.0</v>
       </c>
     </row>
     <row r="8">
@@ -370,7 +370,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2.82329E7</v>
+        <v>2.56996E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.25938312E8</v>
+        <v>-6.90245288E8</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.3168227E8</v>
+        <v>8.458252322E9</v>
       </c>
       <c r="E2" t="n">
-        <v>7.55477204E8</v>
+        <v>5.0504445E9</v>
       </c>
     </row>
     <row r="3">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3102200.0</v>
+        <v>1765600.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>9600008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>110997.0</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.93948E7</v>
+        <v>1.0786E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.20908E8</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>6576400.0</v>
+        <v>3493100.0</v>
       </c>
       <c r="C5" t="n">
         <v>6400064.0</v>
@@ -482,16 +482,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.41079596E8</v>
+        <v>-8.95808496E8</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1.02404096E8</v>
       </c>
       <c r="D6" t="n">
         <v>332991.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7.55699198E8</v>
+        <v>5.050666494E9</v>
       </c>
     </row>
     <row r="7">
@@ -499,16 +499,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.66841E7</v>
+        <v>1.05374E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3717471.0</v>
+        <v>4017333.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1017157.0</v>
+        <v>1117111.0</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.145243496E9</v>
+        <v>-1.206846596E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -525,7 +525,7 @@
         <v>221994.0</v>
       </c>
       <c r="E8" t="n">
-        <v>7.55477204E8</v>
+        <v>5.0504445E9</v>
       </c>
     </row>
   </sheetData>
@@ -560,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>912900.0</v>
+        <v>1670500.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.31178968E8</v>
+        <v>8.458755624E9</v>
       </c>
       <c r="E2" t="n">
-        <v>7.55976704E8</v>
+        <v>5.050944E9</v>
       </c>
     </row>
     <row r="3">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3500.0</v>
+        <v>6800.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>96008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>111996.0</v>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>76100.0</v>
+        <v>78300.0</v>
       </c>
       <c r="C4" t="n">
         <v>1338720.0</v>
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>5500.0</v>
+        <v>14400.0</v>
       </c>
       <c r="C5" t="n">
         <v>64064.0</v>
@@ -628,16 +628,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>322500.0</v>
+        <v>319400.0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1028096.0</v>
       </c>
       <c r="D6" t="n">
         <v>335988.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7.56200696E8</v>
+        <v>5.051167992E9</v>
       </c>
     </row>
     <row r="7">
@@ -645,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>96900.0</v>
+        <v>98800.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3739365.0</v>
+        <v>4037922.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1022455.0</v>
+        <v>1121974.0</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>313300.0</v>
+        <v>302700.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -671,7 +671,7 @@
         <v>223992.0</v>
       </c>
       <c r="E8" t="n">
-        <v>7.55976704E8</v>
+        <v>5.050944E9</v>
       </c>
     </row>
   </sheetData>
@@ -706,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.76327E8</v>
+        <v>1.070422E8</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.1556818E7</v>
+        <v>8.508377774E9</v>
       </c>
       <c r="E2" t="n">
-        <v>8.05971704E8</v>
+        <v>5.100939E9</v>
       </c>
     </row>
     <row r="3">
@@ -723,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>81500.0</v>
+        <v>45900.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>960008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>121995.0</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1491200.0</v>
+        <v>832600.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.7850464E7</v>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>253700.0</v>
+        <v>159000.0</v>
       </c>
       <c r="C5" t="n">
         <v>640064.0</v>
@@ -774,16 +774,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>5.63225E7</v>
+        <v>2.90702E7</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1.0244096E7</v>
       </c>
       <c r="D6" t="n">
         <v>365985.0</v>
       </c>
       <c r="E6" t="n">
-        <v>8.06215694E8</v>
+        <v>5.10118299E9</v>
       </c>
     </row>
     <row r="7">
@@ -791,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1859700.0</v>
+        <v>977000.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4053840.0</v>
+        <v>4320879.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1107280.0</v>
+        <v>1196293.0</v>
       </c>
     </row>
     <row r="8">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4.80099E7</v>
+        <v>2.86359E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -817,7 +817,7 @@
         <v>243990.0</v>
       </c>
       <c r="E8" t="n">
-        <v>8.05971704E8</v>
+        <v>5.100939E9</v>
       </c>
     </row>
   </sheetData>
@@ -852,16 +852,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.70629408E9</v>
+        <v>2.12775312E9</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.14952662E8</v>
+        <v>1.349985455E10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.510954408E9</v>
+        <v>1.0100889E10</v>
       </c>
     </row>
     <row r="3">
@@ -869,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>178300.0</v>
+        <v>147600.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>9600008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>221994.0</v>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>9185600.0</v>
+        <v>1.10273E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.20906976E8</v>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>146900.0</v>
+        <v>155700.0</v>
       </c>
       <c r="C5" t="n">
         <v>6400064.0</v>
@@ -920,16 +920,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.40462796E8</v>
+        <v>-8.46876296E8</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1.02404096E8</v>
       </c>
       <c r="D6" t="n">
         <v>665982.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.511398396E9</v>
+        <v>1.0101332988E10</v>
       </c>
     </row>
     <row r="7">
@@ -937,16 +937,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.04003E7</v>
+        <v>1.08262E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7346622.0</v>
+        <v>8132505.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2004874.0</v>
+        <v>2266835.0</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.131900996E9</v>
+        <v>-1.121120896E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -963,7 +963,7 @@
         <v>443988.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.510954408E9</v>
+        <v>1.0100889E10</v>
       </c>
     </row>
   </sheetData>
@@ -998,16 +998,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>692200.0</v>
+        <v>591600.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.1510957E8</v>
+        <v>1.3500011458E10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.511453908E9</v>
+        <v>1.01013885E10</v>
       </c>
     </row>
     <row r="3">
@@ -1015,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>900.0</v>
+        <v>700.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>96008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>222993.0</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>81900.0</v>
+        <v>69600.0</v>
       </c>
       <c r="C4" t="n">
         <v>1338720.0</v>
@@ -1049,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1800.0</v>
+        <v>1500.0</v>
       </c>
       <c r="C5" t="n">
         <v>64064.0</v>
@@ -1066,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>396900.0</v>
+        <v>306200.0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1028096.0</v>
       </c>
       <c r="D6" t="n">
         <v>668979.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.511899894E9</v>
+        <v>1.0101834486E10</v>
       </c>
     </row>
     <row r="7">
@@ -1083,16 +1083,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>154300.0</v>
+        <v>95300.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7369260.0</v>
+        <v>8154249.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2010420.0</v>
+        <v>2272083.0</v>
       </c>
     </row>
     <row r="8">
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>547400.0</v>
+        <v>293600.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -1109,7 +1109,7 @@
         <v>445986.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.511453908E9</v>
+        <v>1.01013885E10</v>
       </c>
     </row>
   </sheetData>
@@ -1144,16 +1144,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>8.06522E7</v>
+        <v>6.25837E7</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.3139887E8</v>
+        <v>1.3516300758E10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.561448908E9</v>
+        <v>1.01513835E10</v>
       </c>
     </row>
     <row r="3">
@@ -1161,13 +1161,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>9800.0</v>
+        <v>6200.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>960008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>232992.0</v>
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1215400.0</v>
+        <v>1029500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.7850464E7</v>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>22200.0</v>
+        <v>17300.0</v>
       </c>
       <c r="C5" t="n">
         <v>640064.0</v>
@@ -1212,16 +1212,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3.75313E7</v>
+        <v>4.20648E7</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1.0244096E7</v>
       </c>
       <c r="D6" t="n">
         <v>698976.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.561914892E9</v>
+        <v>1.0151849484E10</v>
       </c>
     </row>
     <row r="7">
@@ -1229,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>988400.0</v>
+        <v>1323700.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7661346.0</v>
+        <v>8427657.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2087782.0</v>
+        <v>2343219.0</v>
       </c>
     </row>
     <row r="8">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>2.87559E7</v>
+        <v>4.45915E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -1255,7 +1255,7 @@
         <v>465984.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.561448908E9</v>
+        <v>1.01513835E10</v>
       </c>
     </row>
   </sheetData>
@@ -1290,16 +1290,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7.92425508E8</v>
+        <v>4.99878308E8</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.03143385E9</v>
+        <v>1.5148435334E10</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.028535684E9</v>
+        <v>1.51513335E10</v>
       </c>
     </row>
     <row r="3">
@@ -1307,13 +1307,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>65500.0</v>
+        <v>55200.0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.0</v>
+        <v>9600008.0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
         <v>332991.0</v>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>8598200.0</v>
+        <v>9488300.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.20909408E8</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>146700.0</v>
+        <v>149600.0</v>
       </c>
       <c r="C5" t="n">
         <v>6400064.0</v>
@@ -1358,16 +1358,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.41073396E8</v>
+        <v>-1.246944296E9</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0</v>
+        <v>1.02404096E8</v>
       </c>
       <c r="D6" t="n">
         <v>998973.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.027869702E9</v>
+        <v>1.5151999482E10</v>
       </c>
     </row>
     <row r="7">
@@ -1375,16 +1375,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.05512E7</v>
+        <v>1.05522E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1203494E7</v>
+        <v>1.2244857E7</v>
       </c>
       <c r="E7" t="n">
-        <v>3068498.0</v>
+        <v>3415619.0</v>
       </c>
     </row>
     <row r="8">
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.35047996E8</v>
+        <v>-9.27202396E8</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -1401,7 +1401,7 @@
         <v>665982.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.028535684E9</v>
+        <v>1.51513335E10</v>
       </c>
     </row>
   </sheetData>

--- a/output/excel_output.xlsx
+++ b/output/excel_output.xlsx
@@ -122,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7480400.0</v>
+        <v>7478600.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -139,10 +139,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7579900.0</v>
+        <v>7504200.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96008.0</v>
+        <v>32104.0</v>
       </c>
       <c r="D3" t="n">
         <v>849280.0</v>
@@ -156,7 +156,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1279800.0</v>
+        <v>1295500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1194848.0</v>
@@ -173,10 +173,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>126300.0</v>
+        <v>68500.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64064.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D5" t="n">
         <v>2013.0</v>
@@ -190,10 +190,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3679500.0</v>
+        <v>2801600.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1028096.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D6" t="n">
         <v>3759.0</v>
@@ -207,16 +207,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2178600.0</v>
+        <v>1733500.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>24900.0</v>
+        <v>23262.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6300.0</v>
+        <v>5754.0</v>
       </c>
     </row>
     <row r="8">
@@ -224,7 +224,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>6965300.0</v>
+        <v>4301100.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -268,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.733145E8</v>
+        <v>1.786471E8</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -285,10 +285,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.171914E8</v>
+        <v>1.895549E8</v>
       </c>
       <c r="C3" t="n">
-        <v>960008.0</v>
+        <v>320104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.4952772E7</v>
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2192700.0</v>
+        <v>3896100.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.6191328E7</v>
@@ -319,10 +319,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>585300.0</v>
+        <v>1034700.0</v>
       </c>
       <c r="C5" t="n">
-        <v>640064.0</v>
+        <v>320128.0</v>
       </c>
       <c r="D5" t="n">
         <v>22022.0</v>
@@ -336,10 +336,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00852E7</v>
+        <v>1.737307E8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0244096E7</v>
+        <v>320128.0</v>
       </c>
       <c r="D6" t="n">
         <v>45756.0</v>
@@ -353,16 +353,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3920000.0</v>
+        <v>3305900.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>308226.0</v>
+        <v>325920.0</v>
       </c>
       <c r="E7" t="n">
-        <v>80742.0</v>
+        <v>86640.0</v>
       </c>
     </row>
     <row r="8">
@@ -370,7 +370,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.362752E8</v>
+        <v>1.132043E8</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7133412.0</v>
+        <v>-4.23809488E8</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.115408408E9</v>
+        <v>1.112973612E9</v>
       </c>
       <c r="C3" t="n">
-        <v>9600008.0</v>
+        <v>3200104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.458252322E9</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>8705700.0</v>
+        <v>1.17166E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.04404192E8</v>
@@ -465,10 +465,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2515600.0</v>
+        <v>3169000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6400064.0</v>
+        <v>3200128.0</v>
       </c>
       <c r="D5" t="n">
         <v>222034.0</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8438632E9</v>
+        <v>-1.426433696E9</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02404096E8</v>
+        <v>3200128.0</v>
       </c>
       <c r="D6" t="n">
         <v>345750.0</v>
@@ -499,16 +499,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8758600.0</v>
+        <v>1.27537E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3784665.0</v>
+        <v>4000593.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1039555.0</v>
+        <v>1111531.0</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.83080596E8</v>
+        <v>1.349283904E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>554300.0</v>
+        <v>1513600.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -577,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>572200.0</v>
+        <v>2033900.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96008.0</v>
+        <v>32104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.458755624E9</v>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>63600.0</v>
+        <v>165600.0</v>
       </c>
       <c r="C4" t="n">
         <v>1257184.0</v>
@@ -614,7 +614,7 @@
         <v>9400.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64064.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D5" t="n">
         <v>224040.0</v>
@@ -628,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>143400.0</v>
+        <v>348500.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1028096.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D6" t="n">
         <v>349329.0</v>
@@ -645,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>93300.0</v>
+        <v>225100.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3807267.0</v>
+        <v>4020549.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1045089.0</v>
+        <v>1116183.0</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>397200.0</v>
+        <v>1053500.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -706,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.66424E7</v>
+        <v>1.576722E8</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -723,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>6.90555E7</v>
+        <v>1.571949E8</v>
       </c>
       <c r="C3" t="n">
-        <v>960008.0</v>
+        <v>320104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.508377774E9</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>714300.0</v>
+        <v>1907500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.68696E7</v>
@@ -757,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>120800.0</v>
+        <v>109100.0</v>
       </c>
       <c r="C5" t="n">
-        <v>640064.0</v>
+        <v>320128.0</v>
       </c>
       <c r="D5" t="n">
         <v>244049.0</v>
@@ -774,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.299E7</v>
+        <v>3.40661E7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0244096E7</v>
+        <v>320128.0</v>
       </c>
       <c r="D6" t="n">
         <v>383709.0</v>
@@ -791,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>996400.0</v>
+        <v>2505900.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4101531.0</v>
+        <v>4317285.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1123177.0</v>
+        <v>1195095.0</v>
       </c>
     </row>
     <row r="8">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3.48716E7</v>
+        <v>7.78859E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.400311588E9</v>
+        <v>-1.40086548E9</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -869,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5.8299308E7</v>
+        <v>7.81544112E8</v>
       </c>
       <c r="C3" t="n">
-        <v>9600008.0</v>
+        <v>3200104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.349985455E10</v>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.02521E7</v>
+        <v>1.31726E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.11202912E8</v>
@@ -903,10 +903,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>119200.0</v>
+        <v>241500.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6400064.0</v>
+        <v>3200128.0</v>
       </c>
       <c r="D5" t="n">
         <v>444053.0</v>
@@ -920,10 +920,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.306409E9</v>
+        <v>2.0379125E9</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02404096E8</v>
+        <v>3200128.0</v>
       </c>
       <c r="D6" t="n">
         <v>730500.0</v>
@@ -937,16 +937,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.13355E7</v>
+        <v>1.78272E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7747038.0</v>
+        <v>8014272.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2138346.0</v>
+        <v>2227424.0</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.16180796E8</v>
+        <v>1.528776804E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>420500.0</v>
+        <v>583400.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -1015,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>219700.0</v>
+        <v>283100.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96008.0</v>
+        <v>32104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.3500011458E10</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>56500.0</v>
+        <v>102600.0</v>
       </c>
       <c r="C4" t="n">
         <v>1317728.0</v>
@@ -1049,10 +1049,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1200.0</v>
+        <v>1900.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64064.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D5" t="n">
         <v>446051.0</v>
@@ -1066,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>5158700.0</v>
+        <v>3349800.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1028096.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D6" t="n">
         <v>733497.0</v>
@@ -1083,16 +1083,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>102200.0</v>
+        <v>153300.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7770177.0</v>
+        <v>8035692.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2144059.0</v>
+        <v>2232564.0</v>
       </c>
     </row>
     <row r="8">
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>357700.0</v>
+        <v>580900.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3.56385E7</v>
+        <v>4.98338E7</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -1161,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2.14231E7</v>
+        <v>3.49988E7</v>
       </c>
       <c r="C3" t="n">
-        <v>960008.0</v>
+        <v>320104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.3516300758E10</v>
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>731900.0</v>
+        <v>1397300.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.756656E7</v>
@@ -1195,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>11600.0</v>
+        <v>46300.0</v>
       </c>
       <c r="C5" t="n">
-        <v>640064.0</v>
+        <v>320128.0</v>
       </c>
       <c r="D5" t="n">
         <v>466049.0</v>
@@ -1212,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3.93098E7</v>
+        <v>5.90093E7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0244096E7</v>
+        <v>320128.0</v>
       </c>
       <c r="D6" t="n">
         <v>763494.0</v>
@@ -1229,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>872300.0</v>
+        <v>2109400.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>8037393.0</v>
+        <v>8328342.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2213131.0</v>
+        <v>2310114.0</v>
       </c>
     </row>
     <row r="8">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3.46899E7</v>
+        <v>6.70331E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>9.77082004E8</v>
+        <v>-3.45289692E8</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -1307,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2.097508E9</v>
+        <v>-7.49845396E8</v>
       </c>
       <c r="C3" t="n">
-        <v>9600008.0</v>
+        <v>3200104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.5148435334E10</v>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>7439900.0</v>
+        <v>1.54072E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.18477152E8</v>
@@ -1341,10 +1341,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>119200.0</v>
+        <v>215100.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6400064.0</v>
+        <v>3200128.0</v>
       </c>
       <c r="D5" t="n">
         <v>666047.0</v>
@@ -1358,10 +1358,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9042218E9</v>
+        <v>-7.14967496E8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02404096E8</v>
+        <v>3200128.0</v>
       </c>
       <c r="D6" t="n">
         <v>1063491.0</v>
@@ -1375,16 +1375,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8764400.0</v>
+        <v>1.22405E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1532027E7</v>
+        <v>1.1741022E7</v>
       </c>
       <c r="E7" t="n">
-        <v>3178009.0</v>
+        <v>3247674.0</v>
       </c>
     </row>
     <row r="8">
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.39199196E8</v>
+        <v>1.557466204E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>

--- a/output/excel_output.xlsx
+++ b/output/excel_output.xlsx
@@ -122,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7480400.0</v>
+        <v>5339600.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -139,10 +139,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7579900.0</v>
+        <v>5461700.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96008.0</v>
+        <v>32104.0</v>
       </c>
       <c r="D3" t="n">
         <v>849280.0</v>
@@ -156,7 +156,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1279800.0</v>
+        <v>1178700.0</v>
       </c>
       <c r="C4" t="n">
         <v>1194848.0</v>
@@ -173,10 +173,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>126300.0</v>
+        <v>57000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64064.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D5" t="n">
         <v>2013.0</v>
@@ -190,10 +190,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3679500.0</v>
+        <v>2150100.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1028096.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D6" t="n">
         <v>3759.0</v>
@@ -207,16 +207,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2178600.0</v>
+        <v>1406100.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>24900.0</v>
+        <v>19569.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6300.0</v>
+        <v>4523.0</v>
       </c>
     </row>
     <row r="8">
@@ -224,7 +224,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>6965300.0</v>
+        <v>4206600.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -268,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.733145E8</v>
+        <v>1.017701E8</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -285,10 +285,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.171914E8</v>
+        <v>7.90611E7</v>
       </c>
       <c r="C3" t="n">
-        <v>960008.0</v>
+        <v>320104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.4952772E7</v>
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2192700.0</v>
+        <v>2994500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.6191328E7</v>
@@ -319,10 +319,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>585300.0</v>
+        <v>521900.0</v>
       </c>
       <c r="C5" t="n">
-        <v>640064.0</v>
+        <v>320128.0</v>
       </c>
       <c r="D5" t="n">
         <v>22022.0</v>
@@ -336,10 +336,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00852E7</v>
+        <v>8.30633E7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0244096E7</v>
+        <v>320128.0</v>
       </c>
       <c r="D6" t="n">
         <v>45756.0</v>
@@ -353,16 +353,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3920000.0</v>
+        <v>2184800.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>308226.0</v>
+        <v>339711.0</v>
       </c>
       <c r="E7" t="n">
-        <v>80742.0</v>
+        <v>91237.0</v>
       </c>
     </row>
     <row r="8">
@@ -370,7 +370,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.362752E8</v>
+        <v>6.00103E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7133412.0</v>
+        <v>9.3630357E9</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.115408408E9</v>
+        <v>8.8135149E9</v>
       </c>
       <c r="C3" t="n">
-        <v>9600008.0</v>
+        <v>3200104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.458252322E9</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>8705700.0</v>
+        <v>1.05384E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.04404192E8</v>
@@ -465,10 +465,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2515600.0</v>
+        <v>3946400.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6400064.0</v>
+        <v>3200128.0</v>
       </c>
       <c r="D5" t="n">
         <v>222034.0</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8438632E9</v>
+        <v>2.2536142E9</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02404096E8</v>
+        <v>3200128.0</v>
       </c>
       <c r="D6" t="n">
         <v>345750.0</v>
@@ -499,16 +499,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8758600.0</v>
+        <v>1.4715E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3784665.0</v>
+        <v>3753264.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1039555.0</v>
+        <v>1029088.0</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.83080596E8</v>
+        <v>4.3010016E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>554300.0</v>
+        <v>622300.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -577,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>572200.0</v>
+        <v>860800.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96008.0</v>
+        <v>32104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.458755624E9</v>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>63600.0</v>
+        <v>79300.0</v>
       </c>
       <c r="C4" t="n">
         <v>1257184.0</v>
@@ -611,10 +611,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>9400.0</v>
+        <v>3700.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64064.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D5" t="n">
         <v>224040.0</v>
@@ -628,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>143400.0</v>
+        <v>143700.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1028096.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D6" t="n">
         <v>349329.0</v>
@@ -645,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>93300.0</v>
+        <v>101200.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3807267.0</v>
+        <v>3773814.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1045089.0</v>
+        <v>1033938.0</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>397200.0</v>
+        <v>543200.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -706,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.66424E7</v>
+        <v>4.7413E7</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -723,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>6.90555E7</v>
+        <v>7.74947E7</v>
       </c>
       <c r="C3" t="n">
-        <v>960008.0</v>
+        <v>320104.0</v>
       </c>
       <c r="D3" t="n">
         <v>8.508377774E9</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>714300.0</v>
+        <v>1112200.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.68696E7</v>
@@ -757,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>120800.0</v>
+        <v>102200.0</v>
       </c>
       <c r="C5" t="n">
-        <v>640064.0</v>
+        <v>320128.0</v>
       </c>
       <c r="D5" t="n">
         <v>244049.0</v>
@@ -774,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.299E7</v>
+        <v>1.50849E7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0244096E7</v>
+        <v>320128.0</v>
       </c>
       <c r="D6" t="n">
         <v>383709.0</v>
@@ -791,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>996400.0</v>
+        <v>1204000.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4101531.0</v>
+        <v>4102989.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1123177.0</v>
+        <v>1123663.0</v>
       </c>
     </row>
     <row r="8">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3.48716E7</v>
+        <v>5.14452E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.400311588E9</v>
+        <v>1.47452185E10</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -869,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5.8299308E7</v>
+        <v>1.16304678E10</v>
       </c>
       <c r="C3" t="n">
-        <v>9600008.0</v>
+        <v>3200104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.349985455E10</v>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.02521E7</v>
+        <v>1.28222E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.11202912E8</v>
@@ -903,10 +903,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>119200.0</v>
+        <v>90700.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6400064.0</v>
+        <v>3200128.0</v>
       </c>
       <c r="D5" t="n">
         <v>444053.0</v>
@@ -920,10 +920,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.306409E9</v>
+        <v>1.6648463E9</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02404096E8</v>
+        <v>3200128.0</v>
       </c>
       <c r="D6" t="n">
         <v>730500.0</v>
@@ -937,16 +937,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.13355E7</v>
+        <v>1.40566E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7747038.0</v>
+        <v>7639881.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2138346.0</v>
+        <v>2102627.0</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.16180796E8</v>
+        <v>4.7138542E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>420500.0</v>
+        <v>433500.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -1015,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>219700.0</v>
+        <v>1092400.0</v>
       </c>
       <c r="C3" t="n">
-        <v>96008.0</v>
+        <v>32104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.3500011458E10</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>56500.0</v>
+        <v>88000.0</v>
       </c>
       <c r="C4" t="n">
         <v>1317728.0</v>
@@ -1049,10 +1049,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1200.0</v>
+        <v>1400.0</v>
       </c>
       <c r="C5" t="n">
-        <v>64064.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D5" t="n">
         <v>446051.0</v>
@@ -1066,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>5158700.0</v>
+        <v>4343600.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1028096.0</v>
+        <v>32128.0</v>
       </c>
       <c r="D6" t="n">
         <v>733497.0</v>
@@ -1083,16 +1083,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>102200.0</v>
+        <v>116100.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7770177.0</v>
+        <v>7663869.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2144059.0</v>
+        <v>2108623.0</v>
       </c>
     </row>
     <row r="8">
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>357700.0</v>
+        <v>556300.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3.56385E7</v>
+        <v>3.67672E7</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -1161,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2.14231E7</v>
+        <v>1.87609E7</v>
       </c>
       <c r="C3" t="n">
-        <v>960008.0</v>
+        <v>320104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.3516300758E10</v>
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>731900.0</v>
+        <v>1065500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.756656E7</v>
@@ -1195,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>11600.0</v>
+        <v>13100.0</v>
       </c>
       <c r="C5" t="n">
-        <v>640064.0</v>
+        <v>320128.0</v>
       </c>
       <c r="D5" t="n">
         <v>466049.0</v>
@@ -1212,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>3.93098E7</v>
+        <v>2.13561E7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0244096E7</v>
+        <v>320128.0</v>
       </c>
       <c r="D6" t="n">
         <v>763494.0</v>
@@ -1229,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>872300.0</v>
+        <v>965900.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>8037393.0</v>
+        <v>7958565.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2213131.0</v>
+        <v>2186855.0</v>
       </c>
     </row>
     <row r="8">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3.46899E7</v>
+        <v>4.5989E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>9.77082004E8</v>
+        <v>6.3090574E9</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -1307,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2.097508E9</v>
+        <v>2.4952989E9</v>
       </c>
       <c r="C3" t="n">
-        <v>9600008.0</v>
+        <v>3200104.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.5148435334E10</v>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>7439900.0</v>
+        <v>8964200.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.18477152E8</v>
@@ -1341,10 +1341,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>119200.0</v>
+        <v>94200.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6400064.0</v>
+        <v>3200128.0</v>
       </c>
       <c r="D5" t="n">
         <v>666047.0</v>
@@ -1358,10 +1358,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9042218E9</v>
+        <v>2.1984571E9</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02404096E8</v>
+        <v>3200128.0</v>
       </c>
       <c r="D6" t="n">
         <v>1063491.0</v>
@@ -1375,16 +1375,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8764400.0</v>
+        <v>1.04662E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1532027E7</v>
+        <v>1.2150057E7</v>
       </c>
       <c r="E7" t="n">
-        <v>3178009.0</v>
+        <v>3384019.0</v>
       </c>
     </row>
     <row r="8">
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.39199196E8</v>
+        <v>4.3251206E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>

--- a/output/excel_output.xlsx
+++ b/output/excel_output.xlsx
@@ -122,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5339600.0</v>
+        <v>7811400.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5461700.0</v>
+        <v>1.07331E7</v>
       </c>
       <c r="C3" t="n">
         <v>32104.0</v>
@@ -156,7 +156,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1178700.0</v>
+        <v>1057300.0</v>
       </c>
       <c r="C4" t="n">
         <v>1194848.0</v>
@@ -173,7 +173,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>57000.0</v>
+        <v>70600.0</v>
       </c>
       <c r="C5" t="n">
         <v>32128.0</v>
@@ -190,7 +190,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2150100.0</v>
+        <v>2339000.0</v>
       </c>
       <c r="C6" t="n">
         <v>32128.0</v>
@@ -207,16 +207,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1406100.0</v>
+        <v>1643900.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>19569.0</v>
+        <v>21171.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4523.0</v>
+        <v>5057.0</v>
       </c>
     </row>
     <row r="8">
@@ -224,7 +224,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4206600.0</v>
+        <v>4153800.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -268,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.017701E8</v>
+        <v>2.112369E8</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -285,7 +285,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7.90611E7</v>
+        <v>1.063036E8</v>
       </c>
       <c r="C3" t="n">
         <v>320104.0</v>
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2994500.0</v>
+        <v>2303500.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.6191328E7</v>
@@ -319,7 +319,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>521900.0</v>
+        <v>547700.0</v>
       </c>
       <c r="C5" t="n">
         <v>320128.0</v>
@@ -336,7 +336,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>8.30633E7</v>
+        <v>1.259885E8</v>
       </c>
       <c r="C6" t="n">
         <v>320128.0</v>
@@ -353,16 +353,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2184800.0</v>
+        <v>2711200.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>339711.0</v>
+        <v>299385.0</v>
       </c>
       <c r="E7" t="n">
-        <v>91237.0</v>
+        <v>77795.0</v>
       </c>
     </row>
     <row r="8">
@@ -370,7 +370,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>6.00103E7</v>
+        <v>1.24049E8</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>9.3630357E9</v>
+        <v>1.09428195E10</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -431,7 +431,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>8.8135149E9</v>
+        <v>9.4164083E9</v>
       </c>
       <c r="C3" t="n">
         <v>3200104.0</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.05384E7</v>
+        <v>1.17344E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.04404192E8</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3946400.0</v>
+        <v>3128500.0</v>
       </c>
       <c r="C5" t="n">
         <v>3200128.0</v>
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2.2536142E9</v>
+        <v>2.8187771E9</v>
       </c>
       <c r="C6" t="n">
         <v>3200128.0</v>
@@ -499,16 +499,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.4715E7</v>
+        <v>2.35964E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3753264.0</v>
+        <v>4043415.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1029088.0</v>
+        <v>1125805.0</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4.3010016E9</v>
+        <v>5.361757E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>622300.0</v>
+        <v>775900.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>860800.0</v>
+        <v>857900.0</v>
       </c>
       <c r="C3" t="n">
         <v>32104.0</v>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>79300.0</v>
+        <v>94600.0</v>
       </c>
       <c r="C4" t="n">
         <v>1257184.0</v>
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>3700.0</v>
+        <v>13200.0</v>
       </c>
       <c r="C5" t="n">
         <v>32128.0</v>
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>143700.0</v>
+        <v>203800.0</v>
       </c>
       <c r="C6" t="n">
         <v>32128.0</v>
@@ -645,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>101200.0</v>
+        <v>144900.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3773814.0</v>
+        <v>4064388.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1033938.0</v>
+        <v>1130796.0</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>543200.0</v>
+        <v>568400.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -706,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>4.7413E7</v>
+        <v>9.62893E7</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7.74947E7</v>
+        <v>1.439504E8</v>
       </c>
       <c r="C3" t="n">
         <v>320104.0</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1112200.0</v>
+        <v>2044300.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.68696E7</v>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>102200.0</v>
+        <v>295000.0</v>
       </c>
       <c r="C5" t="n">
         <v>320128.0</v>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.50849E7</v>
+        <v>3.61153E7</v>
       </c>
       <c r="C6" t="n">
         <v>320128.0</v>
@@ -791,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1204000.0</v>
+        <v>2578100.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>4102989.0</v>
+        <v>4344990.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1123663.0</v>
+        <v>1204330.0</v>
       </c>
     </row>
     <row r="8">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>5.14452E7</v>
+        <v>6.37628E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.47452185E10</v>
+        <v>1.8745818E10</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -869,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.16304678E10</v>
+        <v>1.33319146E10</v>
       </c>
       <c r="C3" t="n">
         <v>3200104.0</v>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.28222E7</v>
+        <v>1.32123E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.11202912E8</v>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>90700.0</v>
+        <v>289200.0</v>
       </c>
       <c r="C5" t="n">
         <v>3200128.0</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.6648463E9</v>
+        <v>2.0520509E9</v>
       </c>
       <c r="C6" t="n">
         <v>3200128.0</v>
@@ -937,16 +937,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.40566E7</v>
+        <v>1.53216E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7639881.0</v>
+        <v>7917135.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2102627.0</v>
+        <v>2195045.0</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4.7138542E9</v>
+        <v>5.3280505E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>433500.0</v>
+        <v>464700.0</v>
       </c>
       <c r="C2" t="n">
         <v>32136.0</v>
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1092400.0</v>
+        <v>241600.0</v>
       </c>
       <c r="C3" t="n">
         <v>32104.0</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>88000.0</v>
+        <v>73800.0</v>
       </c>
       <c r="C4" t="n">
         <v>1317728.0</v>
@@ -1049,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1400.0</v>
+        <v>1500.0</v>
       </c>
       <c r="C5" t="n">
         <v>32128.0</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4343600.0</v>
+        <v>3473000.0</v>
       </c>
       <c r="C6" t="n">
         <v>32128.0</v>
@@ -1083,16 +1083,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>116100.0</v>
+        <v>112400.0</v>
       </c>
       <c r="C7" t="n">
         <v>32160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7663869.0</v>
+        <v>7938417.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2108623.0</v>
+        <v>2200139.0</v>
       </c>
     </row>
     <row r="8">
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>556300.0</v>
+        <v>515600.0</v>
       </c>
       <c r="C8" t="n">
         <v>32160.0</v>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3.67672E7</v>
+        <v>5.25824E7</v>
       </c>
       <c r="C2" t="n">
         <v>320136.0</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.87609E7</v>
+        <v>4.27712E7</v>
       </c>
       <c r="C3" t="n">
         <v>320104.0</v>
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1065500.0</v>
+        <v>1416100.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.756656E7</v>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>13100.0</v>
+        <v>30800.0</v>
       </c>
       <c r="C5" t="n">
         <v>320128.0</v>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2.13561E7</v>
+        <v>3.94207E7</v>
       </c>
       <c r="C6" t="n">
         <v>320128.0</v>
@@ -1229,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>965900.0</v>
+        <v>1224000.0</v>
       </c>
       <c r="C7" t="n">
         <v>320160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7958565.0</v>
+        <v>8211537.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2186855.0</v>
+        <v>2271179.0</v>
       </c>
     </row>
     <row r="8">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5989E7</v>
+        <v>7.31447E7</v>
       </c>
       <c r="C8" t="n">
         <v>320160.0</v>
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.3090574E9</v>
+        <v>8.2843959E9</v>
       </c>
       <c r="C2" t="n">
         <v>3200136.0</v>
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2.4952989E9</v>
+        <v>3.6508444E9</v>
       </c>
       <c r="C3" t="n">
         <v>3200104.0</v>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>8964200.0</v>
+        <v>1.00256E7</v>
       </c>
       <c r="C4" t="n">
         <v>2.18477152E8</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>94200.0</v>
+        <v>171000.0</v>
       </c>
       <c r="C5" t="n">
         <v>3200128.0</v>
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>2.1984571E9</v>
+        <v>3.155801E9</v>
       </c>
       <c r="C6" t="n">
         <v>3200128.0</v>
@@ -1375,16 +1375,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.04662E7</v>
+        <v>1.25149E7</v>
       </c>
       <c r="C7" t="n">
         <v>3200160.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2150057E7</v>
+        <v>1.1963658E7</v>
       </c>
       <c r="E7" t="n">
-        <v>3384019.0</v>
+        <v>3321886.0</v>
       </c>
     </row>
     <row r="8">
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>4.3251206E9</v>
+        <v>4.9871237E9</v>
       </c>
       <c r="C8" t="n">
         <v>3200160.0</v>
